--- a/biology/Botanique/Croton_agrarius/Croton_agrarius.xlsx
+++ b/biology/Botanique/Croton_agrarius/Croton_agrarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton agrarius est une espèce de plantes à fleurs du genre Croton et de la famille des Euphorbiaceae, originaire  du Brésil (Minas Gerais).
 Il a pour synonyme :
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Référence Catalogue of Life : Croton fulvus Mart. (synonymie) (consulté le 8 avril 2023)</t>
         </is>
@@ -544,18 +558,90 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton agrarius peut aussi être l'ancien nom de plusieurs autres espèces de crotons.
-Croton grandivelus
-Croton agrarius var. algernonii, Baill.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Croton_agrarius</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_agrarius</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Croton grandivelus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Croton agrarius var. algernonii, Baill.
 Croton agrarius var. augustinianus, Baill.
 Croton agrarius var. cremostachyus, Baill.
 Croton agrarius var. echinocarpus, Baill.
 Croton agrarius var. neuwiedii, Baill.
 sont eux des synonymes de Croton grandivelus
-Croton horridulus
-Croton agrarius var. horridulus, Baill., 1864, est l'ancien nom de Croton horridulus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Croton_agrarius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_agrarius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Croton horridulus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Croton agrarius var. horridulus, Baill., 1864, est l'ancien nom de Croton horridulus
 </t>
         </is>
       </c>
